--- a/Others/En France/Les mots.xlsx
+++ b/Others/En France/Les mots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorgomesromerovilela/Development/NotesInGeneral/Others/En France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0EBFD-5280-9447-B325-F4A991299022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89DB562-258A-1148-B708-5E696C1437F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" activeTab="3" xr2:uid="{FAB4D674-A391-401D-ACEA-E0147A97A104}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTS" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="654">
   <si>
     <t>Les Verbs</t>
   </si>
@@ -1467,8 +1467,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>B</t>
+    <t>"Un"</t>
+  </si>
+  <si>
+    <t>Som nasal "ã"</t>
+  </si>
+  <si>
+    <t>"Ien"</t>
+  </si>
+  <si>
+    <t>som nasal O</t>
+  </si>
+  <si>
+    <t>Som de O</t>
+  </si>
+  <si>
+    <t>"Ez"</t>
+  </si>
+  <si>
+    <t>Som de E</t>
+  </si>
+  <si>
+    <r>
+      <t>Parl</t>
     </r>
     <r>
       <rPr>
@@ -1477,7 +1498,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>eau</t>
+      <t>ez</t>
     </r>
     <r>
       <rPr>
@@ -1485,7 +1506,24 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>coup</t>
+      <t xml:space="preserve"> (parle), av</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (ave)</t>
     </r>
     <r>
       <rPr>
@@ -1495,33 +1533,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (bocu)</t>
-    </r>
-  </si>
-  <si>
-    <t>"Un"</t>
-  </si>
-  <si>
-    <t>Som nasal "ã"</t>
-  </si>
-  <si>
-    <t>"Ien"</t>
-  </si>
-  <si>
-    <t>som nasal O</t>
-  </si>
-  <si>
-    <t>Som de O</t>
-  </si>
-  <si>
-    <t>"Ez"</t>
-  </si>
-  <si>
-    <t>Som de E</t>
-  </si>
-  <si>
-    <r>
-      <t>Parl</t>
+      <t>, aim</t>
     </r>
     <r>
       <rPr>
@@ -1538,7 +1550,15 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve"> (parle), av</t>
+      <t xml:space="preserve"> (éme)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Er"</t>
+  </si>
+  <si>
+    <r>
+      <t>Voyag</t>
     </r>
     <r>
       <rPr>
@@ -1547,7 +1567,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>ez</t>
+      <t>er</t>
     </r>
     <r>
       <rPr>
@@ -1555,17 +1575,224 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve"> (ave)</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> (vuaige)</t>
+    </r>
+  </si>
+  <si>
+    <t>Portugais</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Bom dia</t>
+  </si>
+  <si>
+    <t>Bonjour</t>
+  </si>
+  <si>
+    <t>Boa tarde</t>
+  </si>
+  <si>
+    <t>Bon après-midi</t>
+  </si>
+  <si>
+    <t>Accent</t>
+  </si>
+  <si>
+    <t>bona prrremidi</t>
+  </si>
+  <si>
+    <t>bonjur</t>
+  </si>
+  <si>
+    <t>Boa noite</t>
+  </si>
+  <si>
+    <t>Bonne soirée</t>
+  </si>
+  <si>
+    <t>bonsuarre</t>
+  </si>
+  <si>
+    <t>Boa Noite</t>
+  </si>
+  <si>
+    <t>Bonne nuit</t>
+  </si>
+  <si>
+    <t>bonui</t>
+  </si>
+  <si>
+    <t>Comment tu vas?</t>
+  </si>
+  <si>
+    <t>como tu va?</t>
+  </si>
+  <si>
+    <t>Tudo bem?</t>
+  </si>
+  <si>
+    <t>Como você está?</t>
+  </si>
+  <si>
+    <t>Comment allez-vous?</t>
+  </si>
+  <si>
+    <t>Comotale vu?</t>
+  </si>
+  <si>
+    <t>Como vai?</t>
+  </si>
+  <si>
+    <t>Ça va?</t>
+  </si>
+  <si>
+    <t>çava?</t>
+  </si>
+  <si>
+    <t>bem, obrigado</t>
+  </si>
+  <si>
+    <t>Je vais bien, merci</t>
+  </si>
+  <si>
+    <t>Nada mal</t>
+  </si>
+  <si>
+    <t>Pas trop mal</t>
+  </si>
+  <si>
+    <t>pa trrro mala</t>
+  </si>
+  <si>
+    <t>Eu estou bem</t>
+  </si>
+  <si>
+    <t>Je vais très bien</t>
+  </si>
+  <si>
+    <t>Je ve trrre biã</t>
+  </si>
+  <si>
+    <t>Je ve biã,merci</t>
+  </si>
+  <si>
+    <t>Não muito bem</t>
+  </si>
+  <si>
+    <t>Ca ne va pas</t>
+  </si>
+  <si>
+    <t>Çanva pa</t>
+  </si>
+  <si>
+    <t>Adeus</t>
+  </si>
+  <si>
+    <t>Orvua</t>
+  </si>
+  <si>
+    <t>Au revoir</t>
+  </si>
+  <si>
+    <t>Tchau</t>
+  </si>
+  <si>
+    <t>aplus</t>
+  </si>
+  <si>
+    <t>A plus</t>
+  </si>
+  <si>
+    <t>A gente se vê</t>
+  </si>
+  <si>
+    <t>On se voit plus tard</t>
+  </si>
+  <si>
+    <t>on se vua plu tar</t>
+  </si>
+  <si>
+    <t>Até logo</t>
+  </si>
+  <si>
+    <t>A plus tard</t>
+  </si>
+  <si>
+    <t>aplutar</t>
+  </si>
+  <si>
+    <t>E você?</t>
+  </si>
+  <si>
+    <t>Et vous?</t>
+  </si>
+  <si>
+    <t>e vu?</t>
+  </si>
+  <si>
+    <t>O que você tem feito?</t>
+  </si>
+  <si>
+    <t>Que racontu de nuvu?</t>
+  </si>
+  <si>
+    <t>Que racontes-tu de nouveau?</t>
+  </si>
+  <si>
+    <t>som de U (biquinho)</t>
+  </si>
+  <si>
+    <t>Não muito</t>
+  </si>
+  <si>
+    <t>pagran chos</t>
+  </si>
+  <si>
+    <t>Pas grand-chose</t>
+  </si>
+  <si>
+    <t>Tenho estado muito ocupado</t>
+  </si>
+  <si>
+    <t>J'ai été très occupé</t>
+  </si>
+  <si>
+    <t>je te tresocupe</t>
+  </si>
+  <si>
+    <t>Prazer em conhece-lo</t>
+  </si>
+  <si>
+    <t>anxante</t>
+  </si>
+  <si>
+    <t>Enchanté</t>
+  </si>
+  <si>
+    <t>Até breve</t>
+  </si>
+  <si>
+    <t>Atre bianto</t>
+  </si>
+  <si>
+    <t>A très bientôt</t>
+  </si>
+  <si>
+    <r>
+      <t>Brésil</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, aim</t>
+      <t>i</t>
     </r>
     <r>
       <rPr>
@@ -1574,257 +1801,17 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>ez</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (éme)</t>
-    </r>
-  </si>
-  <si>
-    <t>"Er"</t>
-  </si>
-  <si>
-    <r>
-      <t>Voyag</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>er</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (vuaige)</t>
-    </r>
-  </si>
-  <si>
-    <t>Portugais</t>
-  </si>
-  <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>Bom dia</t>
-  </si>
-  <si>
-    <t>Bonjour</t>
-  </si>
-  <si>
-    <t>Boa tarde</t>
-  </si>
-  <si>
-    <t>Bon après-midi</t>
-  </si>
-  <si>
-    <t>Accent</t>
-  </si>
-  <si>
-    <t>bona prrremidi</t>
-  </si>
-  <si>
-    <t>bonjur</t>
-  </si>
-  <si>
-    <t>Boa noite</t>
-  </si>
-  <si>
-    <t>Bonne soirée</t>
-  </si>
-  <si>
-    <t>bonsuarre</t>
-  </si>
-  <si>
-    <t>Boa Noite</t>
-  </si>
-  <si>
-    <t>Bonne nuit</t>
-  </si>
-  <si>
-    <t>bonui</t>
-  </si>
-  <si>
-    <t>Comment tu vas?</t>
-  </si>
-  <si>
-    <t>como tu va?</t>
-  </si>
-  <si>
-    <t>Tudo bem?</t>
-  </si>
-  <si>
-    <t>Como você está?</t>
-  </si>
-  <si>
-    <t>Comment allez-vous?</t>
-  </si>
-  <si>
-    <t>Comotale vu?</t>
-  </si>
-  <si>
-    <t>Como vai?</t>
-  </si>
-  <si>
-    <t>Ça va?</t>
-  </si>
-  <si>
-    <t>çava?</t>
-  </si>
-  <si>
-    <t>bem, obrigado</t>
-  </si>
-  <si>
-    <t>Je vais bien, merci</t>
-  </si>
-  <si>
-    <t>Nada mal</t>
-  </si>
-  <si>
-    <t>Pas trop mal</t>
-  </si>
-  <si>
-    <t>pa trrro mala</t>
-  </si>
-  <si>
-    <t>Eu estou bem</t>
-  </si>
-  <si>
-    <t>Je vais très bien</t>
-  </si>
-  <si>
-    <t>Je ve trrre biã</t>
-  </si>
-  <si>
-    <t>Je ve biã,merci</t>
-  </si>
-  <si>
-    <t>Não muito bem</t>
-  </si>
-  <si>
-    <t>Ca ne va pas</t>
-  </si>
-  <si>
-    <t>Çanva pa</t>
-  </si>
-  <si>
-    <t>Adeus</t>
-  </si>
-  <si>
-    <t>Orvua</t>
-  </si>
-  <si>
-    <t>Au revoir</t>
-  </si>
-  <si>
-    <t>Tchau</t>
-  </si>
-  <si>
-    <t>aplus</t>
-  </si>
-  <si>
-    <t>A plus</t>
-  </si>
-  <si>
-    <t>A gente se vê</t>
-  </si>
-  <si>
-    <t>On se voit plus tard</t>
-  </si>
-  <si>
-    <t>on se vua plu tar</t>
-  </si>
-  <si>
-    <t>Até logo</t>
-  </si>
-  <si>
-    <t>A plus tard</t>
-  </si>
-  <si>
-    <t>aplutar</t>
-  </si>
-  <si>
-    <t>E você?</t>
-  </si>
-  <si>
-    <t>Et vous?</t>
-  </si>
-  <si>
-    <t>e vu?</t>
-  </si>
-  <si>
-    <t>O que você tem feito?</t>
-  </si>
-  <si>
-    <t>Que racontu de nuvu?</t>
-  </si>
-  <si>
-    <t>Que racontes-tu de nouveau?</t>
-  </si>
-  <si>
-    <t>som de U (biquinho)</t>
-  </si>
-  <si>
-    <t>Não muito</t>
-  </si>
-  <si>
-    <t>pagran chos</t>
-  </si>
-  <si>
-    <t>Pas grand-chose</t>
-  </si>
-  <si>
-    <t>Tenho estado muito ocupado</t>
-  </si>
-  <si>
-    <t>J'ai été très occupé</t>
-  </si>
-  <si>
-    <t>je te tresocupe</t>
-  </si>
-  <si>
-    <t>Prazer em conhece-lo</t>
-  </si>
-  <si>
-    <t>anxante</t>
-  </si>
-  <si>
-    <t>Enchanté</t>
-  </si>
-  <si>
-    <t>Até breve</t>
-  </si>
-  <si>
-    <t>Atre bianto</t>
-  </si>
-  <si>
-    <t>A très bientôt</t>
-  </si>
-  <si>
-    <r>
-      <t>Brésil</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i</t>
+      <t>, B</t>
     </r>
     <r>
       <rPr>
@@ -1833,7 +1820,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>en</t>
+      <t>ien</t>
     </r>
     <r>
       <rPr>
@@ -1843,7 +1830,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, B</t>
+      <t>tôt(bianto)</t>
+    </r>
+  </si>
+  <si>
+    <t>Som de "iã/ian"</t>
+  </si>
+  <si>
+    <t>Français dans votre sommeil (Francês enquanto dorme)</t>
+  </si>
+  <si>
+    <t>Até amanhã</t>
+  </si>
+  <si>
+    <t>A demain</t>
+  </si>
+  <si>
+    <t>A duman</t>
+  </si>
+  <si>
+    <t>Se cuida</t>
+  </si>
+  <si>
+    <t>Pansuã de tuá</t>
+  </si>
+  <si>
+    <t>Prends soin de toi</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>uui</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>Petrréte</t>
+  </si>
+  <si>
+    <t>Peut-être</t>
+  </si>
+  <si>
+    <t>Obrigado</t>
+  </si>
+  <si>
+    <t>Merci</t>
+  </si>
+  <si>
+    <r>
+      <t>ordinat</t>
     </r>
     <r>
       <rPr>
@@ -1852,7 +1898,15 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>ien</t>
+      <t>eu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r (ordinateeer)</t>
     </r>
     <r>
       <rPr>
@@ -1862,66 +1916,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tôt(bianto)</t>
-    </r>
-  </si>
-  <si>
-    <t>Som de "iã/ian"</t>
-  </si>
-  <si>
-    <t>Français dans votre sommeil (Francês enquanto dorme)</t>
-  </si>
-  <si>
-    <t>Até amanhã</t>
-  </si>
-  <si>
-    <t>A demain</t>
-  </si>
-  <si>
-    <t>A duman</t>
-  </si>
-  <si>
-    <t>Se cuida</t>
-  </si>
-  <si>
-    <t>Pansuã de tuá</t>
-  </si>
-  <si>
-    <t>Prends soin de toi</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>uui</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>noon</t>
-  </si>
-  <si>
-    <t>Petrréte</t>
-  </si>
-  <si>
-    <t>Peut-être</t>
-  </si>
-  <si>
-    <t>Obrigado</t>
-  </si>
-  <si>
-    <t>Merci</t>
-  </si>
-  <si>
-    <r>
-      <t>ordinat</t>
+      <t>, Peut (pe)</t>
+    </r>
+  </si>
+  <si>
+    <t>Talvez/pode ser</t>
+  </si>
+  <si>
+    <t>Muito obrigado</t>
+  </si>
+  <si>
+    <t>Merci beaucoup</t>
+  </si>
+  <si>
+    <r>
+      <t>Eau(u), nouv</t>
     </r>
     <r>
       <rPr>
@@ -1930,15 +1939,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>eu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>r (ordinateeer)</t>
+      <t>eau</t>
     </r>
     <r>
       <rPr>
@@ -1948,21 +1949,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, Peut (pe)</t>
-    </r>
-  </si>
-  <si>
-    <t>Talvez/pode ser</t>
-  </si>
-  <si>
-    <t>Muito obrigado</t>
-  </si>
-  <si>
-    <t>Merci beaucoup</t>
-  </si>
-  <si>
-    <r>
-      <t>Eau(u), nouv</t>
+      <t xml:space="preserve"> (nuvu), b</t>
     </r>
     <r>
       <rPr>
@@ -1981,7 +1968,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (nuvu), b</t>
+      <t>coup (bucu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bonj</t>
     </r>
     <r>
       <rPr>
@@ -1990,7 +1982,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>eau</t>
+      <t>ou</t>
     </r>
     <r>
       <rPr>
@@ -2000,12 +1992,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>coup (bucu)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bonj</t>
+      <t>r (bonju), v</t>
     </r>
     <r>
       <rPr>
@@ -2015,6 +2002,31 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>s (vu), c'est t</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>t (ce tu)</t>
     </r>
     <r>
       <rPr>
@@ -2024,7 +2036,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>r (bonju), v</t>
+      <t>, N</t>
     </r>
     <r>
       <rPr>
@@ -2034,31 +2046,6 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>ou</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>s (vu), c'est t</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>ou</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>t (ce tu)</t>
     </r>
     <r>
       <rPr>
@@ -2068,7 +2055,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, N</t>
+      <t>veau (nuvu), Beauc</t>
     </r>
     <r>
       <rPr>
@@ -2087,7 +2074,105 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>veau (nuvu), Beauc</t>
+      <t>p (bucu)</t>
+    </r>
+  </si>
+  <si>
+    <t>Merci bucu</t>
+  </si>
+  <si>
+    <t>De nada</t>
+  </si>
+  <si>
+    <t>De rien</t>
+  </si>
+  <si>
+    <t>De riem</t>
+  </si>
+  <si>
+    <t>Por favor</t>
+  </si>
+  <si>
+    <t>S'il vous plaît</t>
+  </si>
+  <si>
+    <t>si vu ple</t>
+  </si>
+  <si>
+    <t>"Aî/Ai"</t>
+  </si>
+  <si>
+    <t>Com licença</t>
+  </si>
+  <si>
+    <t>Pardon</t>
+  </si>
+  <si>
+    <t>pardon</t>
+  </si>
+  <si>
+    <t>Com licença, que horas são?</t>
+  </si>
+  <si>
+    <t>Excusez-moi, quelle heure est-il?</t>
+  </si>
+  <si>
+    <t>excuse mua, quele horretil?</t>
+  </si>
+  <si>
+    <t>Sinto muito</t>
+  </si>
+  <si>
+    <t>Je sui desole</t>
+  </si>
+  <si>
+    <t>Je suis désolé</t>
+  </si>
+  <si>
+    <t>Não há problema</t>
+  </si>
+  <si>
+    <t>Pas de problème</t>
+  </si>
+  <si>
+    <t>Pa de problema</t>
+  </si>
+  <si>
+    <t>Não importa</t>
+  </si>
+  <si>
+    <t>Ça n'a pas d'importance</t>
+  </si>
+  <si>
+    <t>çanapa dimportance</t>
+  </si>
+  <si>
+    <t>Você fala inglês?</t>
+  </si>
+  <si>
+    <t>Vous parlez anglais?</t>
+  </si>
+  <si>
+    <t>Vu parla angle?</t>
+  </si>
+  <si>
+    <t>Trousse</t>
+  </si>
+  <si>
+    <t>Estojo (lápis)</t>
+  </si>
+  <si>
+    <t>Amar/Gostar</t>
+  </si>
+  <si>
+    <t>Adorar</t>
+  </si>
+  <si>
+    <t>Falar</t>
+  </si>
+  <si>
+    <r>
+      <t>Parl</t>
     </r>
     <r>
       <rPr>
@@ -2096,7 +2181,94 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>ou</t>
+      <t>er</t>
+    </r>
+  </si>
+  <si>
+    <t>Avec</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Premier Groupe (terminam com ER)</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Cozinhar</t>
+  </si>
+  <si>
+    <t>À</t>
+  </si>
+  <si>
+    <t>Ao/Do</t>
+  </si>
+  <si>
+    <t>Regarder</t>
+  </si>
+  <si>
+    <t>Assistir/Olhar</t>
+  </si>
+  <si>
+    <t>Escutar</t>
+  </si>
+  <si>
+    <t>Déjà</t>
+  </si>
+  <si>
+    <t>Já</t>
+  </si>
+  <si>
+    <t>Régulier (1º)</t>
+  </si>
+  <si>
+    <t>"Et"</t>
+  </si>
+  <si>
+    <r>
+      <t>Poll</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (pulle)</t>
+    </r>
+  </si>
+  <si>
+    <t>"An"</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an</t>
     </r>
     <r>
       <rPr>
@@ -2106,192 +2278,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p (bucu)</t>
-    </r>
-  </si>
-  <si>
-    <t>Merci bucu</t>
-  </si>
-  <si>
-    <t>De nada</t>
-  </si>
-  <si>
-    <t>De rien</t>
-  </si>
-  <si>
-    <t>De riem</t>
-  </si>
-  <si>
-    <t>Por favor</t>
-  </si>
-  <si>
-    <t>S'il vous plaît</t>
-  </si>
-  <si>
-    <t>si vu ple</t>
-  </si>
-  <si>
-    <t>"Aî/Ai"</t>
-  </si>
-  <si>
-    <t>Com licença</t>
-  </si>
-  <si>
-    <t>Pardon</t>
-  </si>
-  <si>
-    <t>pardon</t>
-  </si>
-  <si>
-    <t>Com licença, que horas são?</t>
-  </si>
-  <si>
-    <t>Excusez-moi, quelle heure est-il?</t>
-  </si>
-  <si>
-    <t>excuse mua, quele horretil?</t>
-  </si>
-  <si>
-    <t>Sinto muito</t>
-  </si>
-  <si>
-    <t>Je sui desole</t>
-  </si>
-  <si>
-    <t>Je suis désolé</t>
-  </si>
-  <si>
-    <t>Não há problema</t>
-  </si>
-  <si>
-    <t>Pas de problème</t>
-  </si>
-  <si>
-    <t>Pa de problema</t>
-  </si>
-  <si>
-    <t>Não importa</t>
-  </si>
-  <si>
-    <t>Ça n'a pas d'importance</t>
-  </si>
-  <si>
-    <t>çanapa dimportance</t>
-  </si>
-  <si>
-    <t>Você fala inglês?</t>
-  </si>
-  <si>
-    <t>Vous parlez anglais?</t>
-  </si>
-  <si>
-    <t>Vu parla angle?</t>
-  </si>
-  <si>
-    <t>Trousse</t>
-  </si>
-  <si>
-    <t>Estojo (lápis)</t>
-  </si>
-  <si>
-    <t>Amar/Gostar</t>
-  </si>
-  <si>
-    <t>Adorar</t>
-  </si>
-  <si>
-    <t>Falar</t>
-  </si>
-  <si>
-    <r>
-      <t>Parl</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>er</t>
-    </r>
-  </si>
-  <si>
-    <t>Avec</t>
-  </si>
-  <si>
-    <t>Com</t>
-  </si>
-  <si>
-    <t>Premier Groupe (terminam com ER)</t>
-  </si>
-  <si>
-    <t>Du</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Au</t>
-  </si>
-  <si>
-    <t>Cozinhar</t>
-  </si>
-  <si>
-    <t>À</t>
-  </si>
-  <si>
-    <t>Ao/Do</t>
-  </si>
-  <si>
-    <t>Regarder</t>
-  </si>
-  <si>
-    <t>Assistir/Olhar</t>
-  </si>
-  <si>
-    <t>Escutar</t>
-  </si>
-  <si>
-    <t>Déjà</t>
-  </si>
-  <si>
-    <t>Já</t>
-  </si>
-  <si>
-    <t>Régulier (1º)</t>
-  </si>
-  <si>
-    <t>"Et"</t>
-  </si>
-  <si>
-    <r>
-      <t>Poll</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (pulle)</t>
-    </r>
-  </si>
-  <si>
-    <t>"An"</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
+      <t>s (dõn), or</t>
     </r>
     <r>
       <rPr>
@@ -2310,7 +2297,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s (dõn), or</t>
+      <t>ge (orõnge)</t>
+    </r>
+  </si>
+  <si>
+    <t>"En"</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -2319,7 +2314,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>an</t>
+      <t>en</t>
     </r>
     <r>
       <rPr>
@@ -2329,15 +2324,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ge (orõnge)</t>
-    </r>
-  </si>
-  <si>
-    <t>"En"</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
+      <t>dant (Põndõn), compartim</t>
     </r>
     <r>
       <rPr>
@@ -2356,7 +2343,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dant (Põndõn), compartim</t>
+      <t>t (compartimõn)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Ain"</t>
+  </si>
+  <si>
+    <t>Som de on</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -2365,7 +2363,263 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>en</t>
+      <t>ain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (mãn)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Ein"</t>
+  </si>
+  <si>
+    <t>Ceinture (çantur)</t>
+  </si>
+  <si>
+    <t>"In"</t>
+  </si>
+  <si>
+    <t>Voisin (vuasã)</t>
+  </si>
+  <si>
+    <t>Comer</t>
+  </si>
+  <si>
+    <t>Vizinho</t>
+  </si>
+  <si>
+    <t>Côté</t>
+  </si>
+  <si>
+    <t>Ao Lado</t>
+  </si>
+  <si>
+    <t>Les</t>
+  </si>
+  <si>
+    <t>Palavras</t>
+  </si>
+  <si>
+    <t>Bebida</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Frango</t>
+  </si>
+  <si>
+    <t>Jouet (Jue)</t>
+  </si>
+  <si>
+    <t>Boisson (boasson)</t>
+  </si>
+  <si>
+    <t>Poulet (pule)</t>
+  </si>
+  <si>
+    <t>Poisson (poasson)</t>
+  </si>
+  <si>
+    <t>Jantar</t>
+  </si>
+  <si>
+    <t>Suco</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Pendant</t>
+  </si>
+  <si>
+    <t>Rester</t>
+  </si>
+  <si>
+    <t>Ficar</t>
+  </si>
+  <si>
+    <t>Decolar</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>mais (mé)</t>
+  </si>
+  <si>
+    <t>Subir</t>
+  </si>
+  <si>
+    <t>Habiter</t>
+  </si>
+  <si>
+    <t>Morar</t>
+  </si>
+  <si>
+    <t>Mudo</t>
+  </si>
+  <si>
+    <t>Muet (mue)</t>
+  </si>
+  <si>
+    <t>Eau (o français)</t>
+  </si>
+  <si>
+    <t>Jus (ju)</t>
+  </si>
+  <si>
+    <t>Dîner</t>
+  </si>
+  <si>
+    <t>Siège</t>
+  </si>
+  <si>
+    <t>Gare (garr)</t>
+  </si>
+  <si>
+    <t>Estação (trem)</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Arrondissement (arrondissemã)</t>
+  </si>
+  <si>
+    <t>Masculin/ Féminin</t>
+  </si>
+  <si>
+    <t>L'</t>
+  </si>
+  <si>
+    <t>Près (prrré)</t>
+  </si>
+  <si>
+    <t>Perto</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Étranger</t>
+  </si>
+  <si>
+    <t>Estrangeiro</t>
+  </si>
+  <si>
+    <t>École</t>
+  </si>
+  <si>
+    <t>Escola</t>
+  </si>
+  <si>
+    <t>Ancient</t>
+  </si>
+  <si>
+    <t>Antigo</t>
+  </si>
+  <si>
+    <t>Nouveau</t>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
+  <si>
+    <t>Détester</t>
+  </si>
+  <si>
+    <t>Odiar</t>
+  </si>
+  <si>
+    <t>Sempre</t>
+  </si>
+  <si>
+    <t>Toujours (tujur)</t>
+  </si>
+  <si>
+    <t>Heures (ors)</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Armoire (armoiar)</t>
+  </si>
+  <si>
+    <t>horloge (orloge)</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>ordinateur (ordinator)</t>
+  </si>
+  <si>
+    <t>Les Préposition/Nons</t>
+  </si>
+  <si>
+    <t>Bien sûr</t>
+  </si>
+  <si>
+    <t>Claro!</t>
+  </si>
+  <si>
+    <t>jusqu'à</t>
+  </si>
+  <si>
+    <t>Até</t>
+  </si>
+  <si>
+    <t>Andar/floor</t>
+  </si>
+  <si>
+    <t>Étage</t>
+  </si>
+  <si>
+    <t>petit-déjeuner</t>
+  </si>
+  <si>
+    <t>café da manhã</t>
+  </si>
+  <si>
+    <t>Começar</t>
+  </si>
+  <si>
+    <t>Salle</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>"ille"</t>
+  </si>
+  <si>
+    <r>
+      <t>Fam</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>ille</t>
     </r>
     <r>
       <rPr>
@@ -2375,283 +2629,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>t (compartimõn)</t>
-    </r>
-  </si>
-  <si>
-    <t>"Ain"</t>
-  </si>
-  <si>
-    <t>Som de on</t>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
+      <t>, f</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri (Corps)"/>
+      </rPr>
+      <t>illes</t>
+    </r>
+  </si>
+  <si>
+    <t>Som de "ii"</t>
+  </si>
+  <si>
+    <r>
+      <t>Ador</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>ain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (mãn)</t>
-    </r>
-  </si>
-  <si>
-    <t>"Ein"</t>
-  </si>
-  <si>
-    <t>Ceinture (çantur)</t>
-  </si>
-  <si>
-    <t>"In"</t>
-  </si>
-  <si>
-    <t>Voisin (vuasã)</t>
-  </si>
-  <si>
-    <t>Comer</t>
-  </si>
-  <si>
-    <t>Vizinho</t>
-  </si>
-  <si>
-    <t>Côté</t>
-  </si>
-  <si>
-    <t>Ao Lado</t>
-  </si>
-  <si>
-    <t>Les</t>
-  </si>
-  <si>
-    <t>Palavras</t>
-  </si>
-  <si>
-    <t>Bebida</t>
-  </si>
-  <si>
-    <t>Alimentation</t>
-  </si>
-  <si>
-    <t>Peixe</t>
-  </si>
-  <si>
-    <t>Frango</t>
-  </si>
-  <si>
-    <t>Jouet (Jue)</t>
-  </si>
-  <si>
-    <t>Boisson (boasson)</t>
-  </si>
-  <si>
-    <t>Poulet (pule)</t>
-  </si>
-  <si>
-    <t>Poisson (poasson)</t>
-  </si>
-  <si>
-    <t>Jantar</t>
-  </si>
-  <si>
-    <t>Suco</t>
-  </si>
-  <si>
-    <t>Água</t>
-  </si>
-  <si>
-    <t>Pendant</t>
-  </si>
-  <si>
-    <t>Rester</t>
-  </si>
-  <si>
-    <t>Ficar</t>
-  </si>
-  <si>
-    <t>Decolar</t>
-  </si>
-  <si>
-    <t>Mas</t>
-  </si>
-  <si>
-    <t>mais (mé)</t>
-  </si>
-  <si>
-    <t>Subir</t>
-  </si>
-  <si>
-    <t>Habiter</t>
-  </si>
-  <si>
-    <t>Morar</t>
-  </si>
-  <si>
-    <t>Mudo</t>
-  </si>
-  <si>
-    <t>Muet (mue)</t>
-  </si>
-  <si>
-    <t>Eau (o français)</t>
-  </si>
-  <si>
-    <t>Jus (ju)</t>
-  </si>
-  <si>
-    <t>Dîner</t>
-  </si>
-  <si>
-    <t>Siège</t>
-  </si>
-  <si>
-    <t>Gare (garr)</t>
-  </si>
-  <si>
-    <t>Estação (trem)</t>
-  </si>
-  <si>
-    <t>Nord</t>
-  </si>
-  <si>
-    <t>Norte</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
-    <t>Arrondissement (arrondissemã)</t>
-  </si>
-  <si>
-    <t>Masculin/ Féminin</t>
-  </si>
-  <si>
-    <t>L'</t>
-  </si>
-  <si>
-    <t>Près (prrré)</t>
-  </si>
-  <si>
-    <t>Perto</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Étranger</t>
-  </si>
-  <si>
-    <t>Estrangeiro</t>
-  </si>
-  <si>
-    <t>École</t>
-  </si>
-  <si>
-    <t>Escola</t>
-  </si>
-  <si>
-    <t>Ancient</t>
-  </si>
-  <si>
-    <t>Antigo</t>
-  </si>
-  <si>
-    <t>Nouveau</t>
-  </si>
-  <si>
-    <t>Novo</t>
-  </si>
-  <si>
-    <t>Détester</t>
-  </si>
-  <si>
-    <t>Odiar</t>
-  </si>
-  <si>
-    <t>Sempre</t>
-  </si>
-  <si>
-    <t>Toujours (tujur)</t>
-  </si>
-  <si>
-    <t>Heures (ors)</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Armoire (armoiar)</t>
-  </si>
-  <si>
-    <t>horloge (orloge)</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>ordinateur (ordinator)</t>
-  </si>
-  <si>
-    <t>Les Préposition/Nons</t>
-  </si>
-  <si>
-    <t>Bien sûr</t>
-  </si>
-  <si>
-    <t>Claro!</t>
-  </si>
-  <si>
-    <t>jusqu'à</t>
-  </si>
-  <si>
-    <t>Até</t>
-  </si>
-  <si>
-    <t>Andar/floor</t>
-  </si>
-  <si>
-    <t>Étage</t>
-  </si>
-  <si>
-    <t>petit-déjeuner</t>
-  </si>
-  <si>
-    <t>café da manhã</t>
-  </si>
-  <si>
-    <t>Começar</t>
-  </si>
-  <si>
-    <t>Salle</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>"ille"</t>
-  </si>
-  <si>
-    <r>
-      <t>Fam</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>ille</t>
+      <t>er</t>
     </r>
     <r>
       <rPr>
@@ -2661,24 +2665,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, f</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Corps)"/>
-      </rPr>
-      <t>illes</t>
-    </r>
-  </si>
-  <si>
-    <t>Som de "ii"</t>
-  </si>
-  <si>
-    <r>
-      <t>Ador</t>
+      <t xml:space="preserve"> (Adorre)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aim</t>
     </r>
     <r>
       <rPr>
@@ -2697,21 +2689,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Adorre)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Aim</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t xml:space="preserve"> (Eme)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alle</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>er</t>
+      <t>r</t>
     </r>
     <r>
       <rPr>
@@ -2721,834 +2712,811 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Eme)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Alle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> (Alle)</t>
+    </r>
+  </si>
+  <si>
+    <t>Avoir (avua)</t>
+  </si>
+  <si>
+    <t>Cuisiner (cusine)</t>
+  </si>
+  <si>
+    <t>Décoller (Decole)</t>
+  </si>
+  <si>
+    <t>Écouter (Ecute)</t>
+  </si>
+  <si>
+    <t>Manger (mange)</t>
+  </si>
+  <si>
+    <t>Mettre (Méttre)</t>
+  </si>
+  <si>
+    <t>Monter (Monte)</t>
+  </si>
+  <si>
+    <t>Escrever</t>
+  </si>
+  <si>
+    <t>Écrire (ecrie)</t>
+  </si>
+  <si>
+    <t>Lire (lir)</t>
+  </si>
+  <si>
+    <t>Ler</t>
+  </si>
+  <si>
+    <t>Commence (comance)</t>
+  </si>
+  <si>
+    <t>Connaître (conaitrre)</t>
+  </si>
+  <si>
+    <t>Conhecer</t>
+  </si>
+  <si>
+    <t>Attendre (atandre)</t>
+  </si>
+  <si>
+    <t>Régulier (3º)</t>
+  </si>
+  <si>
+    <t>Comprar</t>
+  </si>
+  <si>
+    <t>Esperar</t>
+  </si>
+  <si>
+    <t>Apporter (Apote)</t>
+  </si>
+  <si>
+    <t>Trazer</t>
+  </si>
+  <si>
+    <t>Voir (vuar)</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Apprendre (Aprãn)</t>
+  </si>
+  <si>
+    <t>Aprender</t>
+  </si>
+  <si>
+    <t>Acheter (axet)</t>
+  </si>
+  <si>
+    <t>Cortar</t>
+  </si>
+  <si>
+    <t>Couper (cupe)</t>
+  </si>
+  <si>
+    <t>Correr</t>
+  </si>
+  <si>
+    <t>Courir (cur)</t>
+  </si>
+  <si>
+    <t>contient (contiã)</t>
+  </si>
+  <si>
+    <t>Contém</t>
+  </si>
+  <si>
+    <t>Acreditar</t>
+  </si>
+  <si>
+    <t>Ganhar</t>
+  </si>
+  <si>
+    <t>Entrar</t>
+  </si>
+  <si>
+    <t>Entrer (entrre)</t>
+  </si>
+  <si>
+    <t>Gagner (ganhe)</t>
+  </si>
+  <si>
+    <t>Dizer</t>
+  </si>
+  <si>
+    <t>Dire (dirrre)</t>
+  </si>
+  <si>
+    <t>Donner (done)</t>
+  </si>
+  <si>
+    <t>Dar</t>
+  </si>
+  <si>
+    <t>Marcher (marxe)</t>
+  </si>
+  <si>
+    <t>Mourir</t>
+  </si>
+  <si>
+    <t>Morrer</t>
+  </si>
+  <si>
+    <t>Cacher</t>
+  </si>
+  <si>
+    <t>Esconder</t>
+  </si>
+  <si>
+    <t>Montrer</t>
+  </si>
+  <si>
+    <t>Mériter (merrit)</t>
+  </si>
+  <si>
+    <t>Merecer</t>
+  </si>
+  <si>
+    <t>Laver (lav)</t>
+  </si>
+  <si>
+    <t>Lavar</t>
+  </si>
+  <si>
+    <t>Caminhar</t>
+  </si>
+  <si>
+    <t>Perder</t>
+  </si>
+  <si>
+    <t>Perdre (perdrrre)</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>Ouvrer (uvre)</t>
+  </si>
+  <si>
+    <t>Posséder (possed)</t>
+  </si>
+  <si>
+    <t>Possui</t>
+  </si>
+  <si>
+    <t>Porter (port)</t>
+  </si>
+  <si>
+    <t>Proposer (propos)</t>
+  </si>
+  <si>
+    <t>Propor</t>
+  </si>
+  <si>
+    <t>Prendre</t>
+  </si>
+  <si>
+    <t>Manter/Segurar</t>
+  </si>
+  <si>
+    <t>Tenir (tu tiens bon) = aguenta firme</t>
+  </si>
+  <si>
+    <t>Tomar/Pegar</t>
+  </si>
+  <si>
+    <t>Trouver (truv)</t>
+  </si>
+  <si>
+    <t>Encontrar</t>
+  </si>
+  <si>
+    <t>Vendrer (vendre/vend)</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vouloir (vuluar) </t>
+  </si>
+  <si>
+    <t>Querer</t>
+  </si>
+  <si>
+    <t>Suivrer (suivrrre)</t>
+  </si>
+  <si>
+    <t>Seguir</t>
+  </si>
+  <si>
+    <t>Dormir (dormon)</t>
+  </si>
+  <si>
+    <t>Dormir</t>
+  </si>
+  <si>
+    <t>Améliorer (amelhor)</t>
+  </si>
+  <si>
+    <t>Melhorar</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>La Phrase 1</t>
+  </si>
+  <si>
+    <t>La Phrase 2</t>
+  </si>
+  <si>
+    <t>La Phrase 3</t>
+  </si>
+  <si>
+    <t>La Phrase 4</t>
+  </si>
+  <si>
+    <t>La Phrase 5</t>
+  </si>
+  <si>
+    <t>Avoir</t>
+  </si>
+  <si>
+    <t>Sortir</t>
+  </si>
+  <si>
+    <t>Marcher</t>
+  </si>
+  <si>
+    <t>Étudier</t>
+  </si>
+  <si>
+    <r>
+      <t>La chambre? Ella</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Alle)</t>
-    </r>
-  </si>
-  <si>
-    <t>Avoir (avua)</t>
-  </si>
-  <si>
-    <t>Cuisiner (cusine)</t>
-  </si>
-  <si>
-    <t>Décoller (Decole)</t>
-  </si>
-  <si>
-    <t>Écouter (Ecute)</t>
-  </si>
-  <si>
-    <t>Manger (mange)</t>
-  </si>
-  <si>
-    <t>Mettre (Méttre)</t>
-  </si>
-  <si>
-    <t>Monter (Monte)</t>
-  </si>
-  <si>
-    <t>Escrever</t>
-  </si>
-  <si>
-    <t>Écrire (ecrie)</t>
-  </si>
-  <si>
-    <t>Lire (lir)</t>
-  </si>
-  <si>
-    <t>Ler</t>
-  </si>
-  <si>
-    <t>Commence (comance)</t>
-  </si>
-  <si>
-    <t>Connaître (conaitrre)</t>
-  </si>
-  <si>
-    <t>Conhecer</t>
-  </si>
-  <si>
-    <t>Attendre (atandre)</t>
-  </si>
-  <si>
-    <t>Régulier (3º)</t>
-  </si>
-  <si>
-    <t>Comprar</t>
-  </si>
-  <si>
-    <t>Esperar</t>
-  </si>
-  <si>
-    <t>Apporter (Apote)</t>
-  </si>
-  <si>
-    <t>Trazer</t>
-  </si>
-  <si>
-    <t>Voir (vuar)</t>
-  </si>
-  <si>
-    <t>Ver</t>
-  </si>
-  <si>
-    <t>Apprendre (Aprãn)</t>
-  </si>
-  <si>
-    <t>Aprender</t>
-  </si>
-  <si>
-    <t>Acheter (axet)</t>
-  </si>
-  <si>
-    <t>Cortar</t>
-  </si>
-  <si>
-    <t>Couper (cupe)</t>
-  </si>
-  <si>
-    <t>Correr</t>
-  </si>
-  <si>
-    <t>Courir (cur)</t>
-  </si>
-  <si>
-    <t>contient (contiã)</t>
-  </si>
-  <si>
-    <t>Contém</t>
-  </si>
-  <si>
-    <t>Acreditar</t>
-  </si>
-  <si>
-    <t>Ganhar</t>
-  </si>
-  <si>
-    <t>Entrar</t>
-  </si>
-  <si>
-    <t>Entrer (entrre)</t>
-  </si>
-  <si>
-    <t>Gagner (ganhe)</t>
-  </si>
-  <si>
-    <t>Dizer</t>
-  </si>
-  <si>
-    <t>Dire (dirrre)</t>
-  </si>
-  <si>
-    <t>Donner (done)</t>
-  </si>
-  <si>
-    <t>Dar</t>
-  </si>
-  <si>
-    <t>Marcher (marxe)</t>
-  </si>
-  <si>
-    <t>Mourir</t>
-  </si>
-  <si>
-    <t>Morrer</t>
-  </si>
-  <si>
-    <t>Cacher</t>
-  </si>
-  <si>
-    <t>Esconder</t>
-  </si>
-  <si>
-    <t>Montrer</t>
-  </si>
-  <si>
-    <t>Mériter (merrit)</t>
-  </si>
-  <si>
-    <t>Merecer</t>
-  </si>
-  <si>
-    <t>Laver (lav)</t>
-  </si>
-  <si>
-    <t>Lavar</t>
-  </si>
-  <si>
-    <t>Caminhar</t>
-  </si>
-  <si>
-    <t>Perder</t>
-  </si>
-  <si>
-    <t>Perdre (perdrrre)</t>
-  </si>
-  <si>
-    <t>Abrir</t>
-  </si>
-  <si>
-    <t>Ouvrer (uvre)</t>
-  </si>
-  <si>
-    <t>Posséder (possed)</t>
-  </si>
-  <si>
-    <t>Possui</t>
-  </si>
-  <si>
-    <t>Porter (port)</t>
-  </si>
-  <si>
-    <t>Proposer (propos)</t>
-  </si>
-  <si>
-    <t>Propor</t>
-  </si>
-  <si>
-    <t>Prendre</t>
-  </si>
-  <si>
-    <t>Manter/Segurar</t>
-  </si>
-  <si>
-    <t>Tenir (tu tiens bon) = aguenta firme</t>
-  </si>
-  <si>
-    <t>Tomar/Pegar</t>
-  </si>
-  <si>
-    <t>Trouver (truv)</t>
-  </si>
-  <si>
-    <t>Encontrar</t>
-  </si>
-  <si>
-    <t>Vendrer (vendre/vend)</t>
-  </si>
-  <si>
-    <t>Vender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vouloir (vuluar) </t>
-  </si>
-  <si>
-    <t>Querer</t>
-  </si>
-  <si>
-    <t>Suivrer (suivrrre)</t>
-  </si>
-  <si>
-    <t>Seguir</t>
-  </si>
-  <si>
-    <t>Dormir (dormon)</t>
-  </si>
-  <si>
-    <t>Dormir</t>
-  </si>
-  <si>
-    <t>Améliorer (amelhor)</t>
-  </si>
-  <si>
-    <t>Melhorar</t>
-  </si>
-  <si>
-    <t>Verb</t>
-  </si>
-  <si>
-    <t>La Phrase 1</t>
-  </si>
-  <si>
-    <t>La Phrase 2</t>
-  </si>
-  <si>
-    <t>La Phrase 3</t>
-  </si>
-  <si>
-    <t>La Phrase 4</t>
-  </si>
-  <si>
-    <t>La Phrase 5</t>
-  </si>
-  <si>
-    <t>Avoir</t>
-  </si>
-  <si>
-    <t>Sortir</t>
-  </si>
-  <si>
-    <t>Marcher</t>
-  </si>
-  <si>
-    <t>Étudier</t>
-  </si>
-  <si>
-    <r>
-      <t>La chambre? Ella</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> a</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> une grande fênetre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> une grande fênetre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>as</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> trois mille cinq cent quarante cinq (3545) robes à porter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> trois mille cinq cent quarante cinq (3545) robes à porter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ai</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ai</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> un téléphone et personne à appeler (apule)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Je m'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> un téléphone et personne à appeler (apule)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Je m'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">appelle </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">appelle </t>
-    </r>
-    <r>
-      <rPr>
+      <t>Igor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Igor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>appelons</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>appelons</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> pour le dîner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> pour le dîner</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>avons</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>avons</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> le temps (tã) d'achéter des choses (chosa)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> le temps (tã) d'achéter des choses (chosa)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>Avez</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Avez</t>
-    </r>
-    <r>
-      <rPr>
+      <t>-vous tout les brawlers?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tu t'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-vous tout les brawlers?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tu t'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>appelles</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>appelles</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> Stéphanie?</t>
+    </r>
+  </si>
+  <si>
+    <t>Porter (wear)</t>
+  </si>
+  <si>
+    <t>Appeler (call)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Stéphanie?</t>
-    </r>
-  </si>
-  <si>
-    <t>Porter (wear)</t>
-  </si>
-  <si>
-    <t>Appeler (call)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Je </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>porte</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>porte</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> ma favorite chemise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Porquoi tu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ma favorite chemise</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Porquoi tu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>portes</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>portes</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> sa vêtemets?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ta mère t'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sa vêtemets?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ta mère t'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>appelle</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>appelle</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> trois fois (fua)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> trois fois (fua)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>porte</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>porte</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> la même chemise pendant quatre jeurs</t>
+    </r>
+  </si>
+  <si>
+    <t>Durante/Enquanto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> la même chemise pendant quatre jeurs</t>
-    </r>
-  </si>
-  <si>
-    <t>Durante/Enquanto</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>portons</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>portons</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> nos uniformes pendant le jeu (je)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> nos uniformes pendant le jeu (je)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>appelez</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>appelez</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> Tiago?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Tiago?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>portez</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>portez</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> votre pantalon?</t>
+    </r>
+  </si>
+  <si>
+    <t>Sair</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> votre pantalon?</t>
-    </r>
-  </si>
-  <si>
-    <t>Sair</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Je </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>sors</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sors</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> de l'école</t>
+    </r>
+  </si>
+  <si>
+    <t>Cette</t>
+  </si>
+  <si>
+    <t>Essa/nesta</t>
+  </si>
+  <si>
+    <t>Ce/C'est</t>
+  </si>
+  <si>
+    <t>Esses/esse</t>
+  </si>
+  <si>
+    <t>Tout (sing) /tous (plural)</t>
+  </si>
+  <si>
+    <t>Todo/Todos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de l'école</t>
-    </r>
-  </si>
-  <si>
-    <t>Cette</t>
-  </si>
-  <si>
-    <t>Essa/nesta</t>
-  </si>
-  <si>
-    <t>Ce/C'est</t>
-  </si>
-  <si>
-    <t>Esses/esse</t>
-  </si>
-  <si>
-    <t>Tout (sing) /tous (plural)</t>
-  </si>
-  <si>
-    <t>Todo/Todos</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>sors</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sors</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> de l'école tous les jeurs à cette heure?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de l'école tous les jeurs à cette heure?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>sort</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sort</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> son travail jusqu'à quatre heures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> son travail jusqu'à quatre heures</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>sortons</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sortons</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> en douce (de fininho)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vous </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> en douce (de fininho)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vous </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>sortez</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sortez</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> seul?</t>
     </r>
   </si>
@@ -4022,6 +3990,24 @@
   </si>
   <si>
     <t>Às/para as</t>
+  </si>
+  <si>
+    <t>"Eaux"</t>
+  </si>
+  <si>
+    <t>som de O</t>
+  </si>
+  <si>
+    <t>Boreaux (burro biquinho - escritórios)</t>
+  </si>
+  <si>
+    <t>"Tion"</t>
+  </si>
+  <si>
+    <t>Som "cion"</t>
+  </si>
+  <si>
+    <t>Éducation (educacion)</t>
   </si>
 </sst>
 </file>
@@ -4661,10 +4647,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C26" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:C26" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C24">
-    <sortCondition ref="B2:B24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{07992851-DC1D-4BA4-BBA3-4035EE6B60EC}" name="Tabela10" displayName="Tabela10" ref="A2:C27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:C27" xr:uid="{0D98C976-8E55-4C10-B76F-EECF3484D2EF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C26">
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D461DD1A-ED0B-468B-B1D2-DC2C1D29FB6D}" name="Mots"/>
@@ -4676,9 +4662,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4716,7 +4702,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4822,7 +4808,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4964,7 +4950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5003,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14E2DA-1F61-4D3E-BB06-34F5F1D5F3A2}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5036,7 +5022,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="E1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -5046,12 +5032,12 @@
         <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="19"/>
     </row>
@@ -5072,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>9</v>
@@ -5093,7 +5079,7 @@
         <v>108</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R3" s="17" t="s">
         <v>2</v>
@@ -5104,31 +5090,31 @@
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>104</v>
@@ -5140,42 +5126,42 @@
         <v>109</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R4" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="S4" s="16" t="s">
         <v>496</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>103</v>
@@ -5187,24 +5173,24 @@
         <v>110</v>
       </c>
       <c r="Q5" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="R5" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="S5" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>43</v>
@@ -5216,13 +5202,13 @@
         <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>112</v>
@@ -5234,188 +5220,188 @@
         <v>111</v>
       </c>
       <c r="Q6" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="R6" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="S6" s="16" t="s">
         <v>503</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="S7" s="16" t="s">
         <v>505</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="E8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="Q8" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="R8" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="S8" s="16" t="s">
         <v>509</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>395</v>
-      </c>
       <c r="E9" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="R9" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="S9" s="16" t="s">
         <v>512</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="E10" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="Q10" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="R10" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>515</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="C11" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>65</v>
@@ -5424,18 +5410,18 @@
         <v>66</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R11" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="S11" s="16" t="s">
         <v>517</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>28</v>
@@ -5462,30 +5448,30 @@
         <v>59</v>
       </c>
       <c r="Q12" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="R12" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="S12" s="16" t="s">
         <v>520</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="E13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>52</v>
@@ -5500,30 +5486,30 @@
         <v>62</v>
       </c>
       <c r="Q13" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="R13" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="R13" s="16" t="s">
-        <v>524</v>
-      </c>
       <c r="S13" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>52</v>
@@ -5538,24 +5524,24 @@
         <v>48</v>
       </c>
       <c r="Q14" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="R14" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="S14" s="16" t="s">
         <v>526</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -5576,30 +5562,30 @@
         <v>56</v>
       </c>
       <c r="Q15" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="R15" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="R15" s="16" t="s">
-        <v>530</v>
-      </c>
       <c r="S15" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>52</v>
@@ -5614,68 +5600,68 @@
         <v>73</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="R16" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>534</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="R17" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="S17" s="16" t="s">
         <v>537</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>51</v>
@@ -5690,30 +5676,30 @@
         <v>81</v>
       </c>
       <c r="Q18" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="R18" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="S18" s="16" t="s">
         <v>540</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>52</v>
@@ -5728,24 +5714,24 @@
         <v>122</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R19" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="S19" s="16" t="s">
         <v>542</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
@@ -5754,156 +5740,156 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="R20" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="S20" s="16" t="s">
         <v>563</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="E21" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q21" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="R21" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="R21" s="16" t="s">
+      <c r="S21" s="16" t="s">
         <v>566</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R22" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="S22" s="16" t="s">
         <v>568</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>605</v>
-      </c>
       <c r="H23" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="R23" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="R23" s="16" t="s">
-        <v>571</v>
-      </c>
       <c r="S23" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>52</v>
@@ -5918,301 +5904,301 @@
         <v>79</v>
       </c>
       <c r="Q24" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="R24" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="S24" s="16" t="s">
         <v>575</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>322</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>425</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>28</v>
@@ -6224,231 +6210,231 @@
         <v>51</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>431</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>432</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>51</v>
@@ -6465,85 +6451,85 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>434</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>435</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>316</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>46</v>
@@ -6552,64 +6538,64 @@
         <v>38</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>446</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>447</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>440</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>441</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>51</v>
@@ -6626,36 +6612,36 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>51</v>
@@ -6672,13 +6658,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>51</v>
@@ -6737,10 +6723,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H60" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>14</v>
@@ -6751,10 +6737,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H61" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>14</v>
@@ -6768,7 +6754,7 @@
         <v>52</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>14</v>
@@ -6807,10 +6793,10 @@
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.2">
       <c r="H65" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>14</v>
@@ -6880,13 +6866,13 @@
         <v>51</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.2">
@@ -6922,13 +6908,13 @@
         <v>52</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="8:11" x14ac:dyDescent="0.2">
@@ -6936,13 +6922,13 @@
         <v>52</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="8:11" x14ac:dyDescent="0.2">
@@ -6950,13 +6936,13 @@
         <v>51</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="8:11" x14ac:dyDescent="0.2">
@@ -6964,13 +6950,13 @@
         <v>51</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="8:11" x14ac:dyDescent="0.2">
@@ -7076,13 +7062,13 @@
         <v>51</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="85" spans="8:11" x14ac:dyDescent="0.2">
@@ -7090,13 +7076,13 @@
         <v>52</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="86" spans="8:11" x14ac:dyDescent="0.2">
@@ -7104,13 +7090,13 @@
         <v>51</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="8:11" x14ac:dyDescent="0.2">
@@ -7118,13 +7104,13 @@
         <v>52</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="8:11" x14ac:dyDescent="0.2">
@@ -7132,13 +7118,13 @@
         <v>51</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="8:11" x14ac:dyDescent="0.2">
@@ -7146,13 +7132,13 @@
         <v>52</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="8:11" x14ac:dyDescent="0.2">
@@ -7160,13 +7146,13 @@
         <v>51</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="8:11" x14ac:dyDescent="0.2">
@@ -7174,13 +7160,13 @@
         <v>51</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" spans="8:11" x14ac:dyDescent="0.2">
@@ -7188,13 +7174,13 @@
         <v>51</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" spans="8:11" x14ac:dyDescent="0.2">
@@ -7202,7 +7188,7 @@
         <v>52</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>17</v>
@@ -7214,13 +7200,13 @@
         <v>51</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="8:11" x14ac:dyDescent="0.2">
@@ -7228,13 +7214,13 @@
         <v>51</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -7276,112 +7262,112 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7400,7 +7386,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="139" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7412,414 +7398,414 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="C29" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="C30" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -7832,10 +7818,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8936E1-71F9-4C33-ABC6-3E0FD3DD2C34}">
-  <dimension ref="A2:C26"/>
+  <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7858,46 +7844,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
+        <v>138</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -7913,211 +7899,222 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>648</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>649</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>133</v>
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
       </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>371</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>651</v>
+      </c>
+      <c r="B27" t="s">
+        <v>652</v>
+      </c>
+      <c r="C27" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
